--- a/cabinets_price.xlsx
+++ b/cabinets_price.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\court\OneDrive\MikeSystem\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec577eef9c05ce55/Documents/Programming Projects/System_Web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A9B90D-2214-4CB4-9010-58B49AF2107E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B4A9B90D-2214-4CB4-9010-58B49AF2107E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F9ECC6B-05C9-4DD5-A0DC-FB38AA66F948}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C21A32D4-EEC2-471C-B92D-DC300E1C9B07}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>W2142</t>
   </si>
   <si>
-    <t>2 DOORS</t>
-  </si>
-  <si>
     <t>W2430</t>
   </si>
   <si>
@@ -528,6 +525,9 @@
   </si>
   <si>
     <t>PRICE WITH DISCOUNT</t>
+  </si>
+  <si>
+    <t>WALL CABINETS</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DAC867-193B-4570-9CFC-9668E407F648}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,16 +1107,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>12</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C27" s="4">
         <v>359.78</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4">
         <v>395.48</v>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4">
         <v>431.18</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="4">
         <v>458.18</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4">
         <v>493.89</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4">
         <v>430.85</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4">
         <v>473.94</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4">
         <v>517.13</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4">
         <v>560.25</v>
@@ -1770,10 +1770,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4">
         <v>603.36</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="4">
         <v>489.12</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4">
         <v>537.52</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4">
         <v>585.85</v>
@@ -1846,10 +1846,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4">
         <v>634.28</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="8">
         <v>682.7</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="C42" s="9">
         <v>444.37</v>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="9">
         <v>487.78</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="9">
         <v>546.03</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="9">
         <v>599.79</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="9">
         <v>652.82000000000005</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="9">
         <v>719</v>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="9">
         <v>793.64</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="9">
         <v>880.3</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="9">
         <v>986</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C51" s="4">
         <v>402.72</v>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="4">
         <v>439.64</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="4">
         <v>476.21</v>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="4">
         <v>523.49</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="4">
         <v>553.03</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="4">
         <v>633.58000000000004</v>
@@ -2169,10 +2169,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C57" s="4">
         <v>60.41</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="4">
         <v>74.319999999999993</v>
@@ -2207,10 +2207,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="4">
         <v>84.5</v>
@@ -2226,10 +2226,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="4">
         <v>73.739999999999995</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="4">
         <v>87.25</v>
@@ -2264,10 +2264,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" s="4">
         <v>99.02</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="4">
         <v>84.45</v>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="4">
         <v>100.21</v>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="4">
         <v>113.53</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="4">
         <v>130.38</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="4">
         <v>155.57</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="4">
         <v>140.61000000000001</v>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="4">
         <v>179.06</v>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="4">
         <v>162.66999999999999</v>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C71" s="4">
         <v>590.29999999999995</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="4">
         <v>605.61</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C73" s="4">
         <v>677.83</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="4">
         <v>740.69</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="4">
         <v>809.67</v>
@@ -2530,10 +2530,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="4">
         <v>885.86</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C77" s="4">
         <v>759.94</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C78" s="13">
         <v>201.37</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" s="13">
         <v>321.45</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="13">
         <v>368.91</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="13">
         <v>247.69</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="13">
         <v>334</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="13">
         <v>430.85</v>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" s="13">
         <v>294.99</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="13">
         <v>367.96</v>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="13">
         <v>490.58</v>
@@ -2739,10 +2739,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C87" s="13">
         <v>434.59</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="13">
         <v>468.71</v>
@@ -2777,10 +2777,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="13">
         <v>518.54999999999995</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="13">
         <v>542.22</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="13">
         <v>596.83000000000004</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C92" s="19">
         <v>834.23</v>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="13">
         <v>1046.8</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="13">
         <v>1243.69</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="13">
         <v>1472.91</v>
@@ -2910,10 +2910,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="13">
         <v>884.98</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="13">
         <v>1110.6300000000001</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="13">
         <v>1317.48</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="13">
         <v>1587.76</v>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="13">
         <v>938.98</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="13">
         <v>1181.07</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="13">
         <v>1397.69</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="13">
         <v>1732.69</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C104" s="13">
         <v>134.35</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C105" s="13">
         <v>86.87</v>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C106" s="13">
         <v>45</v>
@@ -3119,10 +3119,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C107" s="13">
         <v>47.76</v>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C108" s="13">
         <v>44.7</v>
@@ -3157,10 +3157,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109" s="13">
         <v>34.19</v>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C110" s="13">
         <v>83.49</v>
@@ -3195,10 +3195,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C111" s="13">
         <v>199.44</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C112" s="13">
         <v>275.47000000000003</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C113" s="13">
         <v>377.81</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C114" s="4">
         <v>119.16</v>
@@ -3271,10 +3271,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C115" s="4">
         <v>143.07</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" s="4">
         <v>166.8</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="4">
         <v>238.32</v>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C118" s="4">
         <v>372.22</v>
@@ -3347,10 +3347,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="4">
         <v>440.31</v>
@@ -3366,10 +3366,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C120" s="4">
         <v>112.33</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C121" s="4">
         <v>132.80000000000001</v>
@@ -3404,10 +3404,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C122" s="4">
         <v>139.27000000000001</v>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C123" s="4">
         <v>202.27</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C124" s="4">
         <v>239.03</v>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C125" s="4">
         <v>250.82</v>
@@ -3480,10 +3480,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C126" s="4">
         <v>131.07</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C127" s="4">
         <v>152.82</v>
@@ -3518,10 +3518,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C128" s="4">
         <v>174.7</v>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C129" s="4">
         <v>203.74</v>
@@ -3556,10 +3556,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C130" s="4">
         <v>262.06</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="C131" s="4">
         <v>31.55</v>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" s="4">
         <v>37.869999999999997</v>
@@ -3613,10 +3613,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="4">
         <v>44.09</v>
@@ -3632,10 +3632,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="4">
         <v>63.09</v>
@@ -3651,10 +3651,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" s="4">
         <v>75.75</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="4">
         <v>88.15</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C137" s="4">
         <v>109.67</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C138" s="4">
         <v>35.979999999999997</v>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C139" s="4">
         <v>49.92</v>
@@ -3746,10 +3746,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C140" s="4">
         <v>63.81</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C141" s="4">
         <v>127.53</v>
